--- a/Results/wdbc-disc_results.xlsx
+++ b/Results/wdbc-disc_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,22 +459,70 @@
           <t>NCC robust</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>C4.5 acc</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>credal-C4.5 acc</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>SPN acc</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>CSPN low</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CSPN high</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CSPN robust</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>87.32943469785575</v>
+        <v>86.93957115009746</v>
       </c>
       <c r="C2" t="n">
-        <v>78.01169590643275</v>
+        <v>78.55750487329435</v>
       </c>
       <c r="D2" t="n">
-        <v>94.03508771929823</v>
+        <v>93.78167641325535</v>
       </c>
       <c r="E2" t="n">
-        <v>92.89904083289312</v>
+        <v>92.64827164734079</v>
+      </c>
+      <c r="F2" t="n">
+        <v>86.82261208576999</v>
+      </c>
+      <c r="G2" t="n">
+        <v>87.54385964912281</v>
+      </c>
+      <c r="H2" t="n">
+        <v>90.50682261208576</v>
+      </c>
+      <c r="I2" t="n">
+        <v>90.50682261208576</v>
+      </c>
+      <c r="J2" t="n">
+        <v>90.50682261208576</v>
+      </c>
+      <c r="K2" t="n">
+        <v>90.50682261208576</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +530,34 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>86.58869395711501</v>
+        <v>87.34892787524366</v>
       </c>
       <c r="C3" t="n">
-        <v>77.79727095516569</v>
+        <v>78.7719298245614</v>
       </c>
       <c r="D3" t="n">
-        <v>93.64522417153995</v>
+        <v>93.99610136452242</v>
       </c>
       <c r="E3" t="n">
-        <v>92.45610040091732</v>
+        <v>92.90819123574961</v>
+      </c>
+      <c r="F3" t="n">
+        <v>81.2280701754386</v>
+      </c>
+      <c r="G3" t="n">
+        <v>86.78362573099415</v>
+      </c>
+      <c r="H3" t="n">
+        <v>90.11695906432747</v>
+      </c>
+      <c r="I3" t="n">
+        <v>90.35087719298245</v>
+      </c>
+      <c r="J3" t="n">
+        <v>90.38986354775828</v>
+      </c>
+      <c r="K3" t="n">
+        <v>90.38585024653136</v>
       </c>
     </row>
     <row r="4">
@@ -499,16 +565,34 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>87.62183235867447</v>
+        <v>87.83625730994153</v>
       </c>
       <c r="C4" t="n">
-        <v>77.85575048732943</v>
+        <v>78.61598440545808</v>
       </c>
       <c r="D4" t="n">
-        <v>94.36647173489278</v>
+        <v>94.21052631578947</v>
       </c>
       <c r="E4" t="n">
-        <v>93.24651085692742</v>
+        <v>93.13476415563333</v>
+      </c>
+      <c r="F4" t="n">
+        <v>62.90448343079922</v>
+      </c>
+      <c r="G4" t="n">
+        <v>86.70565302144249</v>
+      </c>
+      <c r="H4" t="n">
+        <v>90.29239766081872</v>
+      </c>
+      <c r="I4" t="n">
+        <v>90.9551656920078</v>
+      </c>
+      <c r="J4" t="n">
+        <v>91.05263157894736</v>
+      </c>
+      <c r="K4" t="n">
+        <v>91.04391698199747</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +600,34 @@
         <v>20</v>
       </c>
       <c r="B5" t="n">
-        <v>87.11500974658868</v>
+        <v>86.93957115009746</v>
       </c>
       <c r="C5" t="n">
-        <v>77.32943469785575</v>
+        <v>76.80311890838206</v>
       </c>
       <c r="D5" t="n">
-        <v>94.01559454191033</v>
+        <v>93.56725146198829</v>
       </c>
       <c r="E5" t="n">
-        <v>92.83290179224937</v>
+        <v>92.25413876075127</v>
+      </c>
+      <c r="F5" t="n">
+        <v>62.35867446393762</v>
+      </c>
+      <c r="G5" t="n">
+        <v>84.9317738791423</v>
+      </c>
+      <c r="H5" t="n">
+        <v>90.33138401559454</v>
+      </c>
+      <c r="I5" t="n">
+        <v>90.5653021442495</v>
+      </c>
+      <c r="J5" t="n">
+        <v>90.60428849902534</v>
+      </c>
+      <c r="K5" t="n">
+        <v>90.60130718954248</v>
       </c>
     </row>
     <row r="6">
@@ -533,16 +635,34 @@
         <v>30</v>
       </c>
       <c r="B6" t="n">
-        <v>86.54970760233918</v>
+        <v>85.61403508771929</v>
       </c>
       <c r="C6" t="n">
-        <v>76.31578947368421</v>
+        <v>74.56140350877193</v>
       </c>
       <c r="D6" t="n">
-        <v>93.91812865497076</v>
+        <v>94.03508771929823</v>
       </c>
       <c r="E6" t="n">
-        <v>92.60401831801303</v>
+        <v>92.5942539809449</v>
+      </c>
+      <c r="F6" t="n">
+        <v>56.35477582846003</v>
+      </c>
+      <c r="G6" t="n">
+        <v>82.70955165692007</v>
+      </c>
+      <c r="H6" t="n">
+        <v>89.39571150097466</v>
+      </c>
+      <c r="I6" t="n">
+        <v>89.20077972709552</v>
+      </c>
+      <c r="J6" t="n">
+        <v>89.23976608187134</v>
+      </c>
+      <c r="K6" t="n">
+        <v>89.23529411764706</v>
       </c>
     </row>
   </sheetData>
